--- a/myapp/files/9_MethodComparePercent/Scenario 324.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 324.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2756</v>
+        <v>8829</v>
       </c>
       <c r="F2" t="n">
-        <v>2.94516815029334</v>
+        <v>1.96003560875656</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.81818181818182</v>
+        <v>1.49253731343284</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1431</v>
+        <v>9235</v>
       </c>
       <c r="F3" t="n">
-        <v>1.52922192419077</v>
+        <v>2.05016749879565</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.81818181818182</v>
+        <v>1.99004975124378</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>3144</v>
+        <v>12103</v>
       </c>
       <c r="F4" t="n">
-        <v>3.35979995084262</v>
+        <v>2.68686272202748</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>5.45454545454545</v>
+        <v>3.48258706467662</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3050</v>
+        <v>13359</v>
       </c>
       <c r="F5" t="n">
-        <v>3.25934791668893</v>
+        <v>2.96569438185285</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.85185185185185</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5.45454545454545</v>
+        <v>4.97512437810945</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6439</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.42945625606337</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.98507462686567</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>210</v>
+        <v>4478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.224414118853992</v>
+        <v>0.99411478717996</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.81818181818182</v>
+        <v>1.49253731343284</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4553</v>
+        <v>13706</v>
       </c>
       <c r="F8" t="n">
-        <v>4.86551182448679</v>
+        <v>3.04272828787149</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.85185185185185</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.63636363636364</v>
+        <v>2.48756218905473</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5894</v>
+        <v>19855</v>
       </c>
       <c r="F9" t="n">
-        <v>6.29855626916871</v>
+        <v>4.40780462247836</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.7037037037037</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>5.45454545454545</v>
+        <v>4.47761194029851</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>17267</v>
+        <v>36474</v>
       </c>
       <c r="F10" t="n">
-        <v>18.4521837631042</v>
+        <v>8.09721812139389</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -897,10 +897,10 @@
         <v>12.962962962963</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>10.9090909090909</v>
+        <v>9.45273631840796</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>10170</v>
+        <v>33944</v>
       </c>
       <c r="F11" t="n">
-        <v>10.8680551845005</v>
+        <v>7.53555880661826</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -935,16 +935,16 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>12.7272727272727</v>
+        <v>9.95024875621891</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>9.25925925925926</v>
+        <v>7.40740740740741</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.327227600782327</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.497512437810945</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1896</v>
+        <v>8628</v>
       </c>
       <c r="F13" t="n">
-        <v>2.02613890165318</v>
+        <v>1.91541366319533</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.63636363636364</v>
+        <v>2.98507462686567</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9281</v>
+        <v>23938</v>
       </c>
       <c r="F14" t="n">
-        <v>9.91803541468523</v>
+        <v>5.31422951663999</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1049,10 +1049,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>5.45454545454545</v>
+        <v>5.4726368159204</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>3687</v>
+        <v>26859</v>
       </c>
       <c r="F15" t="n">
-        <v>3.94007074387937</v>
+        <v>5.96269072551731</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
@@ -1087,10 +1087,10 @@
         <v>24.0740740740741</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>5.45454545454545</v>
+        <v>6.96517412935323</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>35742</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>7.93471431964853</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>7.40740740740741</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5.97014925373134</v>
       </c>
       <c r="K16" t="n">
         <v>7</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9031</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.00487955404694</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.995024875621891</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1566</v>
+        <v>18981</v>
       </c>
       <c r="F18" t="n">
-        <v>1.67348814345405</v>
+        <v>4.21377685919223</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.81818181818182</v>
+        <v>2.98507462686567</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>6441</v>
+        <v>31135</v>
       </c>
       <c r="F19" t="n">
-        <v>6.88310161685029</v>
+        <v>6.91196156740689</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>1.85185185185185</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.63636363636364</v>
+        <v>4.47761194029851</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>9624</v>
+        <v>35127</v>
       </c>
       <c r="F20" t="n">
-        <v>10.2845784754801</v>
+        <v>7.79818448621493</v>
       </c>
       <c r="G20" t="n">
         <v>12</v>
@@ -1277,10 +1277,10 @@
         <v>22.2222222222222</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>9.09090909090909</v>
+        <v>6.46766169154229</v>
       </c>
       <c r="K20" t="n">
         <v>8</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4213</v>
+        <v>31254</v>
       </c>
       <c r="F21" t="n">
-        <v>4.50217467967556</v>
+        <v>6.93837953517697</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.85185185185185</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>7.27272727272727</v>
+        <v>5.97014925373134</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1224</v>
+        <v>7193</v>
       </c>
       <c r="F22" t="n">
-        <v>1.30801372132041</v>
+        <v>1.59684405185026</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.81818181818182</v>
+        <v>1.49253731343284</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1377</v>
+        <v>12373</v>
       </c>
       <c r="F23" t="n">
-        <v>1.47151543648546</v>
+        <v>2.74680264890077</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.81818181818182</v>
+        <v>2.48756218905473</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1777</v>
+        <v>14859</v>
       </c>
       <c r="F24" t="n">
-        <v>1.89897090096926</v>
+        <v>3.29869397559335</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.63636363636364</v>
+        <v>2.98507462686567</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2187</v>
+        <v>15932</v>
       </c>
       <c r="F25" t="n">
-        <v>2.33711275206514</v>
+        <v>3.53689968498238</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.63636363636364</v>
+        <v>3.48258706467662</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>1829</v>
+        <v>19503</v>
       </c>
       <c r="F26" t="n">
-        <v>1.95454011135215</v>
+        <v>4.32966071781392</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.63636363636364</v>
+        <v>3.98009950248756</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
